--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Documents and Settings\linzhipeng\我的文档\WebstormProjects\data-source\server\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Documents and Settings\linzhipeng\我的文档\WebstormProjects\data-source\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC5552-7394-4FD2-BCA0-9E91C94141A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14596B-96DA-460B-8A1B-F01785758FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2470" yWindow="1220" windowWidth="31970" windowHeight="15290" xr2:uid="{675B5C22-7314-408E-AB83-6B925F055C43}"/>
+    <workbookView xWindow="0" yWindow="3070" windowWidth="37260" windowHeight="15200" xr2:uid="{675B5C22-7314-408E-AB83-6B925F055C43}"/>
   </bookViews>
   <sheets>
     <sheet name="A-员工维度" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>员工基础信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -181,10 +181,6 @@
   <si>
     <t>月度/季度
 奖金/提成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年终奖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -456,6 +452,14 @@
   </si>
   <si>
     <t>填写城市名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年终奖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +467,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -700,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +745,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -748,33 +780,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,38 +815,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,127 +1161,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A4F406-F2A8-4E5F-85D6-C79B282DDF0A}">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="BE6" sqref="BE6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV23" sqref="AV23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="30" width="0" hidden="1" customWidth="1"/>
-    <col min="38" max="39" width="0" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="0" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="0" hidden="1" customWidth="1"/>
-    <col min="60" max="61" width="0" hidden="1" customWidth="1"/>
+    <col min="30" max="31" width="0" hidden="1" customWidth="1"/>
+    <col min="39" max="40" width="0" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="0" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="0" hidden="1" customWidth="1"/>
+    <col min="61" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="11" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:62" s="11" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="14" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="14" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
       <c r="AB1" s="23"/>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AE1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AF1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="30" t="s">
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AN1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
       <c r="AS1" s="23"/>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AV1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="16" t="s">
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BB1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="BB1" s="18" t="s">
+      <c r="BC1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BC1" s="20" t="s">
+      <c r="BD1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="20" t="s">
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="12" t="s">
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:61" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1329,137 +1338,155 @@
         <v>37</v>
       </c>
       <c r="S2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="Y2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BH2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BG2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="13"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="BJ1:BJ2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="BA1:BA2"/>
+    <mergeCell ref="BB1:BB2"/>
+    <mergeCell ref="BC1:BC2"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AU1:AU2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:AC1"/>
     <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="BH1:BH2"/>
-    <mergeCell ref="BI1:BI2"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AO1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1480,154 +1507,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>102</v>
+      <c r="H2" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="C3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>70</v>
+      <c r="H3" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="H4" s="41" t="s">
-        <v>103</v>
+      <c r="F4" s="19"/>
+      <c r="H4" s="20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>104</v>
+      <c r="H5" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="H6" s="42" t="s">
-        <v>105</v>
+      <c r="D6" s="16"/>
+      <c r="H6" s="20" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="36"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="36"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
